--- a/data/income_statement/3digits/total/869_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/869_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>869-Other human health activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>869-Other human health activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1230119.50905</v>
@@ -959,34 +865,39 @@
         <v>1598987.72187</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1767212.79751</v>
+        <v>1767218.9108</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1995581.6792</v>
+        <v>1999636.9533</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2371289.82097</v>
+        <v>2384138.40135</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2699517.98314</v>
+        <v>2712818.85955</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2878803.205060001</v>
+        <v>2880201.33459</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>3312157.03021</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4144500.76914</v>
+        <v>4153526.65765</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>4694057.68866</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4719347.48789</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5048361.678</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1197378.04228</v>
@@ -998,34 +909,39 @@
         <v>1528586.86608</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1687801.69657</v>
+        <v>1687807.73146</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1901773.99026</v>
+        <v>1905813.77917</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2259993.87512</v>
+        <v>2272840.4505</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2496067.526519999</v>
+        <v>2509122.48565</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2722997.99863</v>
+        <v>2724240.06315</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>3061652.77459</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3825362.1984</v>
+        <v>3834306.76174</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4289227.54086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4312656.69453</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4553609.988</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>14443.944</v>
@@ -1046,7 +962,7 @@
         <v>66613.23578</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>135071.02904</v>
+        <v>135117.54372</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>76911.58757999999</v>
@@ -1058,13 +974,18 @@
         <v>209871.63976</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>256851.4788</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>258055.45389</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>325265.703</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>18297.52277</v>
@@ -1076,34 +997,39 @@
         <v>33951.02778</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>36137.69076999999</v>
+        <v>36137.76916999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>38812.873</v>
+        <v>38828.35819000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>44682.71007</v>
+        <v>44684.71507</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>68379.42758</v>
+        <v>68578.83018</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>78893.61885</v>
+        <v>79049.68386000002</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>96806.63605000002</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>109266.93098</v>
+        <v>109348.25615</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>147978.669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>148635.33947</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>169485.987</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>9613.689490000001</v>
@@ -1118,13 +1044,13 @@
         <v>15569.24867</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>15833.97919</v>
+        <v>15840.47888</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>20701.67209</v>
+        <v>20722.63822</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>17271.15433</v>
+        <v>17297.45797</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>17636.06824</v>
@@ -1133,22 +1059,27 @@
         <v>23433.75088</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>31131.70204</v>
+        <v>31144.13884</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>38749.76764</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>38825.68318</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>64436.717</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>7186.185</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>9337.696180000001</v>
+        <v>9337.696179999999</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>9566.3881</v>
@@ -1157,13 +1088,13 @@
         <v>10132.22242</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>11141.76168</v>
+        <v>11148.26137</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>15250.83242</v>
+        <v>15253.44416</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>11826.2917</v>
+        <v>11839.3083</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>12226.49487</v>
@@ -1175,13 +1106,18 @@
         <v>24258.97544</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>26773.01751</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>26848.93305</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>49045.283</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>2170.74421</v>
@@ -1196,10 +1132,10 @@
         <v>4053.37039</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>3046.358130000001</v>
+        <v>3046.35813</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>3632.28427</v>
+        <v>3650.63866</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>3470.58937</v>
@@ -1211,16 +1147,21 @@
         <v>3563.92094</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>4338.02851</v>
+        <v>4350.46531</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>9222.85334</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>13286.697</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>256.76028</v>
@@ -1241,7 +1182,7 @@
         <v>1818.5554</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1974.27326</v>
+        <v>1987.5603</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>2059.66325</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>2753.89679</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>2104.737</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1220505.81956</v>
@@ -1271,34 +1217,39 @@
         <v>1582988.25418</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1751643.54884</v>
+        <v>1751649.66213</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1979747.70001</v>
+        <v>1983796.47442</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2350588.14888</v>
+        <v>2363415.76313</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2682246.82881</v>
+        <v>2695521.40158</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2861167.13682</v>
+        <v>2862565.26635</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>3288723.27933</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4113369.0671</v>
+        <v>4122382.51881</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4655307.92102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4680521.80471</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4983924.961</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>800972.75027</v>
@@ -1310,34 +1261,39 @@
         <v>1058255.61661</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1220071.20493</v>
+        <v>1220076.12441</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1446780.68007</v>
+        <v>1450816.74075</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1760258.05562</v>
+        <v>1769816.29598</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2062815.43736</v>
+        <v>2072556.84779</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2215488.991859999</v>
+        <v>2216850.37095</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>2507521.35286</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3111241.85548</v>
+        <v>3119878.00755</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3573305.60197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3593770.95586</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3710267.862</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>10793.72747</v>
@@ -1352,10 +1308,10 @@
         <v>15741.61119</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>10998.01218</v>
+        <v>11131.88525</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>13036.9557</v>
+        <v>13174.30058</v>
       </c>
       <c r="I15" s="48" t="n">
         <v>23507.78519</v>
@@ -1367,16 +1323,21 @@
         <v>19244.53704</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>60073.02652</v>
+        <v>60207.14465000001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>37816.24768</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>38222.49371</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>52027.904</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>151509.92513</v>
@@ -1388,73 +1349,83 @@
         <v>159802.24063</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>148109.95299</v>
+        <v>148114.87247</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>167651.82835</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>240107.64455</v>
+        <v>240455.39632</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>287276.4500900001</v>
+        <v>287757.27202</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>192901.00148</v>
+        <v>193429.53524</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>207681.13001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>290512.21781</v>
+        <v>295343.27622</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>331430.45146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>338050.57288</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>471776.136</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>637019.84501</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>704921.45583</v>
+        <v>704921.4558299999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>884334.27383</v>
+        <v>884334.2738300001</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>1042893.73498</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1253687.92825</v>
+        <v>1257590.11586</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1499089.39638</v>
+        <v>1508111.34259</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1736695.37905</v>
+        <v>1745933.66245</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2006350.30479</v>
+        <v>2007217.80358</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>2275782.55221</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2756422.10561</v>
+        <v>2760093.08114</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3188907.75073</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3202334.872769999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3173809.755</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1649.25266</v>
@@ -1472,13 +1443,13 @@
         <v>14442.91129</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>8024.05899</v>
+        <v>8075.256490000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>15335.82303</v>
+        <v>15358.12813</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>3546.06957</v>
+        <v>3511.41611</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>4813.133599999999</v>
@@ -1487,13 +1458,18 @@
         <v>4234.50554</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>15151.1521</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>15163.0165</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>12654.067</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>419533.06929</v>
@@ -1505,73 +1481,83 @@
         <v>524732.63757</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>531572.3439100001</v>
+        <v>531573.53772</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>532967.01994</v>
+        <v>532979.73367</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>590330.09326</v>
+        <v>593599.4671499999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>619431.39145</v>
+        <v>622964.5537899999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>645678.1449600001</v>
+        <v>645714.8954</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>781201.9264700001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1002127.21162</v>
+        <v>1002504.51126</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1082002.31905</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1086750.84885</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1273657.099</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>261494.63975</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>280593.02856</v>
+        <v>280593.0285599999</v>
       </c>
       <c r="E20" s="47" t="n">
         <v>325718.88761</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>337137.49417</v>
+        <v>337150.70211</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>361507.43478</v>
+        <v>361952.62256</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>426313.97939</v>
+        <v>428454.4672899999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>452481.7125</v>
+        <v>455407.15864</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>491373.73289</v>
+        <v>491924.73447</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>555761.79053</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>692053.6755899999</v>
+        <v>693306.8034000001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>800772.8968</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>808291.81322</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>799661.74</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>333.97823</v>
@@ -1604,52 +1590,62 @@
         <v>2852.88105</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4873.06736</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5049.91684</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>5878.834</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>35121.98367</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>33218.47081</v>
+        <v>33218.47080999999</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>38888.39632</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>44257.30222999999</v>
+        <v>44257.30223</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>42703.67506999999</v>
+        <v>42709.47907</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>49220.30151</v>
+        <v>49220.60449</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>53196.01828</v>
+        <v>53524.96167</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>59701.63679</v>
+        <v>59702.36177</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>74472.54056000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>113408.00421</v>
+        <v>113455.80798</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>123230.11332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>123790.54743</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>120544.131</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>226038.67785</v>
@@ -1661,34 +1657,39 @@
         <v>286009.32189</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>289495.98134</v>
+        <v>289509.18928</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>317432.30982</v>
+        <v>317871.6936</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>376327.4608999999</v>
+        <v>378467.6458199999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>397785.57168</v>
+        <v>400382.0744300001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>429078.23724</v>
+        <v>429628.51384</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>480061.0772</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>575792.7903299999</v>
+        <v>576998.11437</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>672669.71612</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>679451.34895</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>673238.775</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>158038.42954</v>
@@ -1700,34 +1701,39 @@
         <v>199013.74996</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>194434.84974</v>
+        <v>194422.83561</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>171459.58516</v>
+        <v>171027.11111</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>164016.11387</v>
+        <v>165144.99986</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>166949.67895</v>
+        <v>167557.39515</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>154304.41207</v>
+        <v>153790.16093</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>225440.13594</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>310073.53603</v>
+        <v>309197.70786</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>281229.42225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>278459.03563</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>473995.359</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>30468.04774</v>
@@ -1739,34 +1745,39 @@
         <v>37262.90143999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>55075.67571000001</v>
+        <v>55075.67571</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>52741.824</v>
+        <v>53061.39788</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>67848.2175</v>
+        <v>67669.47235</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>102455.03601</v>
+        <v>102658.3984</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>97851.22821</v>
+        <v>97855.63282</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>138920.3922</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>283666.8755800001</v>
+        <v>283714.60372</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>194484.00444</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>195106.42532</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>303661.889</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1286.69086</v>
@@ -1790,22 +1801,27 @@
         <v>1877.82444</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>4375.85631</v>
+        <v>4375.856309999999</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>3709.52191</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>6370.571470000001</v>
+        <v>6370.57147</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>5417.8262</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>5344.579</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1792.50663</v>
@@ -1823,7 +1839,7 @@
         <v>5597.87143</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>6331.942550000001</v>
+        <v>6331.942549999999</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>3820.45744</v>
@@ -1832,7 +1848,7 @@
         <v>7250.69111</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>8903.31035</v>
+        <v>8903.310350000002</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>16259.11272</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>8949.59692</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>6452.566</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>4567.603109999999</v>
@@ -1853,37 +1874,42 @@
         <v>5432.56409</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>7818.18673</v>
+        <v>7818.186729999999</v>
       </c>
       <c r="F28" s="48" t="n">
         <v>10959.88208</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>8624.693240000001</v>
+        <v>8719.024640000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>11433.94556</v>
+        <v>11433.9514</v>
       </c>
       <c r="I28" s="48" t="n">
         <v>13514.31644</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>11407.43831</v>
+        <v>11406.604</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>19790.41759</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>29706.48634</v>
+        <v>29706.72387</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>38015.83567</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>38103.95273</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>29635.593</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>165.66856</v>
@@ -1892,7 +1918,7 @@
         <v>290.23036</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>56.81715</v>
+        <v>56.81714999999999</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>222.90371</v>
@@ -1904,7 +1930,7 @@
         <v>158.491</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>433.16721</v>
+        <v>593.2679800000001</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>335.36899</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>67.74394000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>245.502</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>542.4266899999999</v>
@@ -1937,31 +1968,36 @@
         <v>202.31335</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>602.90214</v>
+        <v>745.9070400000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>349.9034300000001</v>
+        <v>349.90343</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>371.45692</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>443.0834500000001</v>
+        <v>443.08345</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>593.75895</v>
+        <v>593.7589499999999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>6799.43666</v>
+        <v>6807.696660000001</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>844.83096</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>2053.98</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1388.04891</v>
@@ -1976,13 +2012,13 @@
         <v>2816.04878</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>3034.55117</v>
+        <v>3046.55633</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>783.84292</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>530.81479</v>
+        <v>530.8147899999999</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>1814.65138</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>3176.17635</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>2870.009</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>17178.96683</v>
@@ -2018,28 +2059,33 @@
         <v>18840.93532</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>32081.03519999999</v>
+        <v>32239.27206</v>
       </c>
       <c r="I32" s="48" t="n">
         <v>63731.45147</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>53419.77995</v>
+        <v>53420.31007</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>78116.80814000001</v>
+        <v>78116.80813999998</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>190260.34821</v>
+        <v>190260.39213</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>97992.41883000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>98000.31299999998</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>197182.513</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>21.39232</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>10.70995</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>3.763</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>98.42976</v>
@@ -2096,7 +2147,7 @@
         <v>1.37929</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>65.88685000000001</v>
+        <v>65.88685</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>8.898370000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>60.601</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>3426.31407</v>
@@ -2126,37 +2182,42 @@
         <v>5169.580099999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>8663.269399999999</v>
+        <v>8663.269400000001</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>14770.59254</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>14636.87153</v>
+        <v>14707.10395</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>13262.19242</v>
+        <v>12925.20457</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>18175.12359</v>
+        <v>18218.38521</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>18784.58475</v>
+        <v>18789.29355</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>26647.27192</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>33379.1329</v>
+        <v>33418.31959</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>39999.96725</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>40526.3769</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>59812.783</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>22506.0852</v>
@@ -2171,37 +2232,42 @@
         <v>22936.59331</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>43324.15691000001</v>
+        <v>43332.20793</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>53123.51904000001</v>
+        <v>53307.45066</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>79599.18341</v>
+        <v>79615.03637999999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>93750.17816</v>
+        <v>93826.85770000001</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>135361.51925</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>220502.98427</v>
+        <v>220524.87512</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>151396.30436</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>151396.69724</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>256429.981</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>765.96636</v>
+        <v>765.9663600000001</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>632.7028899999999</v>
+        <v>632.70289</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>813.18049</v>
@@ -2216,28 +2282,33 @@
         <v>1768.59808</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1424.16951</v>
+        <v>1425.15914</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1933.43349</v>
+        <v>1933.47049</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>1681.25631</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2173.013559999999</v>
+        <v>2173.01356</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3405.48453</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3405.53245</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2333.075</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>4101.056600000001</v>
+        <v>4101.0566</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>1406.13065</v>
@@ -2264,16 +2335,21 @@
         <v>16418.24242</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>5281.60773</v>
+        <v>5289.86773</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>8144.000539999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>8144.00054</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3914.192</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>161.44587</v>
@@ -2285,19 +2361,19 @@
         <v>12.04143</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>74.90416</v>
+        <v>74.90415999999999</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>969.2956799999999</v>
+        <v>969.2956800000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>520.48981</v>
+        <v>520.4898099999999</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>1154.64727</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>40.36334</v>
+        <v>40.36333999999999</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>12577.86732</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>88.67460000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>140.477</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>15526.64682</v>
@@ -2330,28 +2411,33 @@
         <v>34754.2657</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>38340.16020000001</v>
+        <v>38509.93075</v>
       </c>
       <c r="I40" s="48" t="n">
         <v>71945.58966</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>83419.20843</v>
+        <v>83419.31723</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>96754.14540000001</v>
+        <v>96754.14539999999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>206411.5639</v>
+        <v>206425.19472</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>129695.36231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>129695.4</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>238888.942</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>84.70375999999999</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>4.17329</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1193.697</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>6.74249</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>1859.5233</v>
@@ -2438,79 +2534,89 @@
         <v>1571.77709</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>4809.85567</v>
+        <v>4809.855670000001</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>6521.258640000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3903.90862</v>
+        <v>3911.95964</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>8496.942300000001</v>
+        <v>8511.103370000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3290.20122</v>
+        <v>3305.06456</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5508.61004</v>
+        <v>5585.143779999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>7912.870639999999</v>
+        <v>7912.870640000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>6521.87065</v>
+        <v>6521.87068</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>10058.60909</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>10058.91636</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>9959.598</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>38722.49476</v>
+        <v>38722.49476000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>34223.27712999999</v>
+        <v>34223.27713</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>45606.32762999999</v>
+        <v>45606.32763000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>53387.98288</v>
+        <v>53388.06582</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>59082.42638</v>
+        <v>59109.73807</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>73449.73471</v>
+        <v>74082.05139000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>98651.41097999999</v>
+        <v>98893.41180000002</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>105395.8396</v>
+        <v>105402.73321</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>141783.71793</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>191502.86514</v>
+        <v>191509.2978</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>159353.66668</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>159419.50575</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>175810.03</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>35988.89376</v>
+        <v>35988.89376000001</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>32079.79735</v>
@@ -2519,34 +2625,39 @@
         <v>41936.12731</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>46384.20057</v>
+        <v>46384.28351</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>56098.17014</v>
+        <v>56125.48183</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>71202.48338999999</v>
+        <v>71361.27895000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>92421.94697</v>
+        <v>92632.79435000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>99170.09210000001</v>
+        <v>99174.05333</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>132794.29687</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>164741.16746</v>
+        <v>164747.60012</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>149585.1462</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>149650.98527</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>171848.096</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>2733.601</v>
@@ -2564,16 +2675,16 @@
         <v>2984.25624</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2247.25132</v>
+        <v>2720.77244</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>6229.46401</v>
+        <v>6260.61745</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>6225.7475</v>
+        <v>6228.67988</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>8989.421059999999</v>
+        <v>8989.421060000001</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>26761.69768</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>9768.520480000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>3961.934</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>127277.89732</v>
@@ -2597,34 +2713,39 @@
         <v>154197.62264</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>173185.94926</v>
+        <v>173173.85219</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>121794.82587</v>
+        <v>121646.56299</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>105291.07762</v>
+        <v>105424.97016</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>91154.12057</v>
+        <v>91707.34537000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>53009.62252</v>
+        <v>52416.20284000001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>87215.29096</v>
+        <v>87215.29096000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>181734.5622</v>
+        <v>180878.13866</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>164963.45565</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>162749.25796</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>345417.237</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>10345.08612</v>
@@ -2639,31 +2760,36 @@
         <v>25812.77926</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>30445.89721</v>
+        <v>30876.04646</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>41487.65358</v>
+        <v>41779.05341</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>97995.1893</v>
+        <v>98156.3906</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>44257.40395</v>
+        <v>44498.76609999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>45228.3476</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>66881.04977</v>
+        <v>67161.92098000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>190914.65231</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>191118.2751</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>78868</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>166.62895</v>
@@ -2678,16 +2804,16 @@
         <v>560.6736099999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>467.45781</v>
+        <v>467.4578099999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>844.2053600000002</v>
+        <v>845.0140399999999</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>188.89292</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>455.10085</v>
+        <v>497.92884</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>469.5198</v>
@@ -2696,13 +2822,18 @@
         <v>347.38021</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>842.8206600000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>842.8206600000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>5321.602</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>10178.45717</v>
@@ -2717,31 +2848,36 @@
         <v>25252.10565</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>29978.4394</v>
+        <v>30408.58865</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>40643.44822</v>
+        <v>40934.03937</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>97806.29638000001</v>
+        <v>97967.49767999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>43802.3031</v>
+        <v>44000.83726</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>44758.8278</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>66533.66956000001</v>
+        <v>66814.54076999999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>190071.83165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>190275.45444</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>73546.398</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>11750.72306</v>
@@ -2753,37 +2889,42 @@
         <v>210802.14026</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>41525.05444000001</v>
+        <v>41525.15345000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>24095.40319</v>
+        <v>24160.85883</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>95889.00616999999</v>
+        <v>96020.7907</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>23523.98823</v>
+        <v>23588.73239</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>123276.3647</v>
+        <v>123449.97353</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>39315.64507</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>115051.54828</v>
+        <v>115125.84441</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>97283.37736</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>97348.93328999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>66071.762</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>45.47905</v>
+        <v>45.47904999999999</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>59.26443999999999</v>
@@ -2795,10 +2936,10 @@
         <v>277.29495</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>211.55789</v>
+        <v>219.60789</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>278.03902</v>
+        <v>289.95879</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>132.52969</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>3.82952</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>378.252</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>518.89628</v>
@@ -2834,31 +2980,36 @@
         <v>1209.70895</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>806.20296</v>
+        <v>806.71266</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1384.30462</v>
+        <v>1411.99909</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1605.4971</v>
+        <v>1608.68969</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>968.2815900000001</v>
+        <v>968.2815899999999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>3965.07694</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2154.96231</v>
+        <v>2176.72288</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2133.33151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2133.33154</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>7067.76</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>11186.34773</v>
@@ -2870,34 +3021,39 @@
         <v>208544.67492</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>40038.05054</v>
+        <v>40038.14954999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>23077.64234</v>
+        <v>23134.53828</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>94226.66253</v>
+        <v>94318.83282</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>21785.96144</v>
+        <v>21847.51301</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>122128.94451</v>
+        <v>122302.55334</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>34497.11878</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>112869.44665</v>
+        <v>112921.98221</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>95146.21633</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>95211.77222999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>58625.75</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>125872.26038</v>
@@ -2909,34 +3065,39 @@
         <v>-31056.82424</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>157473.67408</v>
+        <v>157461.478</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>128145.31989</v>
+        <v>128361.75062</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>50889.72503</v>
+        <v>51183.23287</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>165625.32164</v>
+        <v>166275.00358</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-26009.33823</v>
+        <v>-26535.00459</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>93127.99348999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>133564.06369</v>
+        <v>132914.21523</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>258594.7306</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>256518.59977</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>358213.475</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>28369.7759</v>
@@ -2951,31 +3112,36 @@
         <v>34307.72718</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>34608.01883</v>
+        <v>34668.86914</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>30728.47666</v>
+        <v>30721.23418</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>33717.11684999999</v>
+        <v>33747.13297999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>34788.2212</v>
+        <v>34793.42518999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>38674.25568000001</v>
+        <v>38674.25568</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>57835.81031999999</v>
+        <v>57859.32282</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>67612.80117999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>68264.40633</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>75448.974</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>97502.48448</v>
@@ -2984,34 +3150,37 @@
         <v>102832.47549</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-64424.13501</v>
+        <v>-64424.13501000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>123165.9469</v>
+        <v>123153.75082</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>93537.30106</v>
+        <v>93692.88148</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>20161.24837</v>
+        <v>20461.99869</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>131908.20479</v>
+        <v>132527.8706</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-60797.55942999999</v>
+        <v>-61328.42978</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>54453.73781000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>75728.25337000001</v>
+        <v>75054.89241</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>190981.92942</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>188254.19344</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>282764.501</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1672</v>
@@ -3041,31 +3213,34 @@
         <v>1748</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1624</v>
+        <v>1633</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1571</v>
+        <v>1579</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1500</v>
+        <v>1515</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1523</v>
+        <v>1541</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1616</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1652</v>
+        <v>1705</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1842</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>